--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tihomir_Pelev\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -218,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,9 +506,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -537,7 +531,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,13 +543,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +643,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,23 +820,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -853,231 +847,233 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="E1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:16">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="5"/>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1234567890</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="21"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,50 +1123,51 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:16">
+      <c r="A13" s="2">
         <v>100000001</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="27">
         <v>0.2</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N13" t="b">
+      <c r="N13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O13" t="b">
+      <c r="O13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P13" t="b">
+      <c r="P13" s="2" t="b">
         <v>0</v>
       </c>
     </row>
